--- a/medicine/Pharmacie/Documentation_centrale_des_Hospices_civils_de_Lyon/Documentation_centrale_des_Hospices_civils_de_Lyon.xlsx
+++ b/medicine/Pharmacie/Documentation_centrale_des_Hospices_civils_de_Lyon/Documentation_centrale_des_Hospices_civils_de_Lyon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Documentation centrale est un service transversal des Hospices civils de Lyon chargé de la fonction documentaire. Elle coordonne les bibliothèques hospitalières et unités documentaires présentes sur les cinq groupements hospitaliers des Hospices.
 </t>
@@ -513,16 +525,126 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Centre de documentation du siège administratif
-Créé en 1977 à l'initiative de la direction générale, le centre de documentation administratif est situé au siège des HCL, quai des Célestins dans le second arrondissement de Lyon.
-Centralisation
-À la demande de la direction générale, la Documentation centrale prend en charge en 1981 l'acquisition et la gestion des abonnements de revues scientifiques et professionnelles reçues au format papier dans les établissements hospitaliers des HCL.
+          <t>Centre de documentation du siège administratif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créé en 1977 à l'initiative de la direction générale, le centre de documentation administratif est situé au siège des HCL, quai des Célestins dans le second arrondissement de Lyon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Documentation_centrale_des_Hospices_civils_de_Lyon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Documentation_centrale_des_Hospices_civils_de_Lyon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Évolution du service</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Centralisation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la demande de la direction générale, la Documentation centrale prend en charge en 1981 l'acquisition et la gestion des abonnements de revues scientifiques et professionnelles reçues au format papier dans les établissements hospitaliers des HCL.
 C'est à cette époque que le service administratif du siège prend le nom de Documentation centrale.
-2003-2005
-La centralisation de la politique d'achat est étendue aux revues professionnelles et scientifiques diffusées sous forme électronique ainsi qu'à l'ensemble des ouvrages achetés par les écoles paramédicales. À cette occasion, la bibliothèque de l'IFSI Clemenceau lui est rattachée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Documentation_centrale_des_Hospices_civils_de_Lyon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Documentation_centrale_des_Hospices_civils_de_Lyon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Évolution du service</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2003-2005</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La centralisation de la politique d'achat est étendue aux revues professionnelles et scientifiques diffusées sous forme électronique ainsi qu'à l'ensemble des ouvrages achetés par les écoles paramédicales. À cette occasion, la bibliothèque de l'IFSI Clemenceau lui est rattachée.
 En 2005, le service déménage et s'installe dans les locaux de l'IFCS Esquirol dans le 3e arrondissement de Lyon.
-Depuis 2010
-Aujourd’hui les missions de la Documentation centrale sont les suivantes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Documentation_centrale_des_Hospices_civils_de_Lyon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Documentation_centrale_des_Hospices_civils_de_Lyon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Évolution du service</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Depuis 2010</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Aujourd’hui les missions de la Documentation centrale sont les suivantes :
 Constituer, conserver et le fonds documentaire des Hospices Civils de Lyon et assurer la diffusion des informations
 Gérer et optimiser les budgets alloués à la fonction documentaire
 Développer, mettre en œuvre et évaluer les prestations à destination de ses usagers
@@ -534,31 +656,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Documentation_centrale_des_Hospices_civils_de_Lyon</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Documentation_centrale_des_Hospices_civils_de_Lyon</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Documentation_centrale_des_Hospices_civils_de_Lyon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Documentation_centrale_des_Hospices_civils_de_Lyon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Statut et fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La Documentation centrale est placée sous l'autorité de la direction générale des HCL. Elle relève du secrétaire général.
 La Documentation centrale est une bibliothèque professionnelle et de recherche, principalement dédiée aux personnels hospitaliers, étudiants, chercheurs et enseignants des disciplines de santé, des techniques, de la gestion et du droit hospitalier.
@@ -570,31 +694,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Documentation_centrale_des_Hospices_civils_de_Lyon</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Documentation_centrale_des_Hospices_civils_de_Lyon</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Documentation_centrale_des_Hospices_civils_de_Lyon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Documentation_centrale_des_Hospices_civils_de_Lyon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Domaines couverts</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Les bibliothèques du réseau proposent principalement des ressources dans les domaines suivants :
 L’hôpital et la gestion hospitalière
@@ -610,62 +736,66 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Documentation_centrale_des_Hospices_civils_de_Lyon</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Documentation_centrale_des_Hospices_civils_de_Lyon</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Documentation_centrale_des_Hospices_civils_de_Lyon</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Documentation_centrale_des_Hospices_civils_de_Lyon</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Usagers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2012, la répartition des utilisateurs HCL est la suivante : 48,58 % d'étudiants, 18,10 % des soignants, 13,72 % du personnel administratifs, 10,24 % du personnel médicaux et 4,35 % du personnel techniques et médico-techniques. 5,01 % sont des usagers extérieurs aux HCL[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2012, la répartition des utilisateurs HCL est la suivante : 48,58 % d'étudiants, 18,10 % des soignants, 13,72 % du personnel administratifs, 10,24 % du personnel médicaux et 4,35 % du personnel techniques et médico-techniques. 5,01 % sont des usagers extérieurs aux HCL.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Documentation_centrale_des_Hospices_civils_de_Lyon</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Documentation_centrale_des_Hospices_civils_de_Lyon</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Documentation_centrale_des_Hospices_civils_de_Lyon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Documentation_centrale_des_Hospices_civils_de_Lyon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Produits documentaires élaborés par la Documentation centrale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>La Documentation centrale élabore, diffuse et met à disposition des produits documentaires, notamment :
 Le bulletin du groupe de lecture des équipes soignantes : le groupe de lecture, composé d’une trentaine de membres du personnel soignant des HCL, lit et sélectionne les articles les plus pertinents dans leur domaine afin de réaliser ce bulletin mensuel de signalement d’articles,
@@ -674,31 +804,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Documentation_centrale_des_Hospices_civils_de_Lyon</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Documentation_centrale_des_Hospices_civils_de_Lyon</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Documentation_centrale_des_Hospices_civils_de_Lyon</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Documentation_centrale_des_Hospices_civils_de_Lyon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Collections</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>26 800 ouvrages
 1 100 titres de périodiques papier
@@ -710,31 +842,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Documentation_centrale_des_Hospices_civils_de_Lyon</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Documentation_centrale_des_Hospices_civils_de_Lyon</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Documentation_centrale_des_Hospices_civils_de_Lyon</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Documentation_centrale_des_Hospices_civils_de_Lyon</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Caroline Giroudon, "Documentaliste en CHU : Environnement spécifique, service transversal et profession à part entière", Gestions Hospitalières, no 530 de novembre 2013, p. 541-545.
 Rapport d'activité de la Documentation centrale 2012
